--- a/data_impute_project/data/fish.xlsx
+++ b/data_impute_project/data/fish.xlsx
@@ -436,47 +436,47 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>diet</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>δ13C coll</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>δ15N coll</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>δ13C carb</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>δ18O carb</t>
+          <t>I</t>
         </is>
       </c>
     </row>

--- a/data_impute_project/data/fish.xlsx
+++ b/data_impute_project/data/fish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -468,6 +473,11 @@
       <c r="D2" t="n">
         <v>-13.04</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35 B2Op</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -482,6 +492,11 @@
       <c r="D3" t="n">
         <v>-11.68</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36 B3Pop</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -496,6 +511,11 @@
       <c r="D4" t="n">
         <v>-12.01</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37 B4Pop</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -510,6 +530,11 @@
       <c r="D5" t="n">
         <v>-15.07</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38 B5C</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -524,6 +549,11 @@
       <c r="D6" t="n">
         <v>-13.2</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1 D1V</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -538,6 +568,11 @@
       <c r="D7" t="n">
         <v>-3.76</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3 D3V</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -552,6 +587,11 @@
       <c r="D8" t="n">
         <v>-3.9</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4 D4V</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -566,6 +606,11 @@
       <c r="D9" t="n">
         <v>-4</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5 D5V</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -580,6 +625,11 @@
       <c r="D10" t="n">
         <v>-13.38</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40 D2V</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -594,6 +644,11 @@
       <c r="D11" t="n">
         <v>-3.99</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>42 D4V</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -608,6 +663,11 @@
       <c r="D12" t="n">
         <v>-7.1</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6 FB1C</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -622,6 +682,11 @@
       <c r="D13" t="n">
         <v>-6.73</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7 FB2C</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -636,6 +701,11 @@
       <c r="D14" t="n">
         <v>-11.03</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8 FB3C</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -650,6 +720,11 @@
       <c r="D15" t="n">
         <v>-13.1</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9 FB4C</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -664,6 +739,11 @@
       <c r="D16" t="n">
         <v>-10.96</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>44 FB1C</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -678,6 +758,11 @@
       <c r="D17" t="n">
         <v>-9.140000000000001</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>45 FB2C</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -692,6 +777,11 @@
       <c r="D18" t="n">
         <v>-8.029999999999999</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46 FB3Op</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -706,6 +796,11 @@
       <c r="D19" t="n">
         <v>-9.35</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>47 FB4Pop</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -720,6 +815,11 @@
       <c r="D20" t="n">
         <v>-8.73</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>48 FB5Pop</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -734,6 +834,11 @@
       <c r="D21" t="n">
         <v>-9.01</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10 H1C</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -748,6 +853,11 @@
       <c r="D22" t="n">
         <v>-11.54</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>11 H2C</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -762,6 +872,11 @@
       <c r="D23" t="n">
         <v>-9.640000000000001</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>12 H3C</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -776,6 +891,11 @@
       <c r="D24" t="n">
         <v>-9.359999999999999</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13 H4C</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -790,6 +910,11 @@
       <c r="D25" t="n">
         <v>-6.51</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>14 H5C</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -804,6 +929,11 @@
       <c r="D26" t="n">
         <v>-12.49</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>49 H1C</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -818,6 +948,11 @@
       <c r="D27" t="n">
         <v>-12.8</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>51 H3C</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -832,6 +967,11 @@
       <c r="D28" t="n">
         <v>-12.49</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>52 H4C</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -846,6 +986,11 @@
       <c r="D29" t="n">
         <v>-13.82</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>53 H5De</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -860,6 +1005,11 @@
       <c r="D30" t="n">
         <v>-5.07</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>54 HH1De</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -874,6 +1024,11 @@
       <c r="D31" t="n">
         <v>-7.45</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>58 HH5De</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -888,6 +1043,11 @@
       <c r="D32" t="n">
         <v>-4.86</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>59 SF1C</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -902,6 +1062,11 @@
       <c r="D33" t="n">
         <v>-10.23</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60 SF2C</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -916,6 +1081,11 @@
       <c r="D34" t="n">
         <v>-11.61</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>61 SF3C</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -930,6 +1100,11 @@
       <c r="D35" t="n">
         <v>-15.06</v>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>63 SF5C</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -944,6 +1119,11 @@
       <c r="D36" t="n">
         <v>-14.49</v>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>64 SLOp</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -958,6 +1138,11 @@
       <c r="D37" t="n">
         <v>-14.74</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65 SOC</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -972,6 +1157,11 @@
       <c r="D38" t="n">
         <v>-12.39</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>66 ST1Rü</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -986,6 +1176,11 @@
       <c r="D39" t="n">
         <v>-7.58</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67 ST2Rü</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1000,6 +1195,11 @@
       <c r="D40" t="n">
         <v>-6.27</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68 ST3Rü</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1014,6 +1214,11 @@
       <c r="D41" t="n">
         <v>-5.33</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69 ST4Rü</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1028,6 +1233,11 @@
       <c r="D42" t="n">
         <v>-6.41</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67 ST5Rü</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1042,6 +1252,11 @@
       <c r="D43" t="n">
         <v>-10.22</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15 Z1C</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1056,6 +1271,11 @@
       <c r="D44" t="n">
         <v>-10.41</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>16 Z2C</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1070,6 +1290,11 @@
       <c r="D45" t="n">
         <v>-14.55</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>17 Z3C</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1084,6 +1309,11 @@
       <c r="D46" t="n">
         <v>-13.94</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>18 Z4C</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1097,6 +1327,11 @@
       </c>
       <c r="D47" t="n">
         <v>-9.58</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>19 Z5C</t>
+        </is>
       </c>
     </row>
   </sheetData>
